--- a/repo/train_data_5.xlsx
+++ b/repo/train_data_5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TIN\Desktop\fine tune\repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DBLab\Desktop\keen\tune\repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049AEC27-ACE8-4400-9065-04EA391312CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955F68A8-D609-4E69-A769-A685A4BD4471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1615,18 +1615,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -1910,10 +1907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H163"/>
+  <dimension ref="A1:H137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1924,14 +1921,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="7" t="s">
         <v>175</v>
       </c>
       <c r="G1" t="s">
@@ -1939,13 +1935,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>181</v>
+      <c r="A2" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F2" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>169</v>
       </c>
       <c r="G2" t="s">
@@ -1954,40 +1950,40 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>187</v>
-      </c>
-      <c r="F3" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>168</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>156</v>
+      <c r="A5" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>187</v>
-      </c>
-      <c r="F5" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>160</v>
       </c>
       <c r="G5" t="s">
@@ -1996,12 +1992,12 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>177</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>187</v>
-      </c>
-      <c r="F6" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>98</v>
       </c>
       <c r="G6" t="s">
@@ -2010,12 +2006,12 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>187</v>
-      </c>
-      <c r="F7" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>184</v>
       </c>
       <c r="G7" t="s">
@@ -2024,12 +2020,12 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>187</v>
-      </c>
-      <c r="F8" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>111</v>
       </c>
       <c r="G8" t="s">
@@ -2038,12 +2034,12 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>187</v>
-      </c>
-      <c r="F9" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>182</v>
       </c>
       <c r="G9" t="s">
@@ -2051,13 +2047,13 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>161</v>
+      <c r="A10" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="B10" t="s">
-        <v>187</v>
-      </c>
-      <c r="F10" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>113</v>
       </c>
       <c r="G10" t="s">
@@ -2066,15 +2062,15 @@
     </row>
     <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>158</v>
       </c>
       <c r="B11" t="s">
-        <v>187</v>
-      </c>
-      <c r="F11" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" t="s">
         <v>201</v>
       </c>
       <c r="H11" t="s">
@@ -2082,30 +2078,30 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>80</v>
+      <c r="A12" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>187</v>
-      </c>
-      <c r="F12" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="8" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>187</v>
-      </c>
-      <c r="F13" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" t="s">
         <v>201</v>
       </c>
       <c r="H13" t="s">
@@ -2114,26 +2110,26 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>187</v>
-      </c>
-      <c r="F14" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>134</v>
+      <c r="A15" t="s">
+        <v>104</v>
       </c>
       <c r="B15" t="s">
-        <v>187</v>
-      </c>
-      <c r="F15" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>112</v>
       </c>
       <c r="G15" t="s">
@@ -2141,41 +2137,41 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>28</v>
+      <c r="A16" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>187</v>
-      </c>
-      <c r="F16" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>187</v>
-      </c>
-      <c r="F17" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>187</v>
-      </c>
-      <c r="F18" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G18" t="s">
@@ -2184,40 +2180,40 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>187</v>
-      </c>
-      <c r="F19" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="8" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>187</v>
-      </c>
-      <c r="F20" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="B21" t="s">
-        <v>187</v>
-      </c>
-      <c r="F21" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G21" t="s">
@@ -2226,12 +2222,12 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="B22" t="s">
-        <v>187</v>
-      </c>
-      <c r="F22" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>132</v>
       </c>
       <c r="G22" t="s">
@@ -2239,314 +2235,470 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>143</v>
+      <c r="A23" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>187</v>
+        <v>201</v>
+      </c>
+      <c r="F23" t="s">
+        <v>150</v>
+      </c>
+      <c r="G23" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>187</v>
+        <v>201</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G24" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="B25" t="s">
-        <v>187</v>
+        <v>201</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>1</v>
+      <c r="A26" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="B26" t="s">
-        <v>187</v>
+        <v>201</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="B27" t="s">
-        <v>187</v>
+        <v>201</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G27" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>72</v>
+      <c r="A28" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="B28" t="s">
-        <v>187</v>
+        <v>201</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G28" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>178</v>
+      <c r="A29" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="B29" t="s">
-        <v>187</v>
+        <v>201</v>
+      </c>
+      <c r="F29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="B30" t="s">
-        <v>187</v>
+        <v>201</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G30" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>187</v>
+        <v>201</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G31" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>25</v>
+      <c r="A32" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>27</v>
+        <v>201</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="B33" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>154</v>
+        <v>201</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="B34" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>183</v>
+        <v>201</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="B35" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F36" t="s">
+        <v>102</v>
+      </c>
+      <c r="G36" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="B37" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G37" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="B38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>74</v>
+        <v>201</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G38" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>166</v>
+        <v>201</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G39" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>167</v>
+        <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>73</v>
+        <v>201</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G41" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="B42" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>146</v>
+        <v>201</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G42" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G43" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>6</v>
+        <v>201</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G44" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>163</v>
+        <v>201</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="B46" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>118</v>
+        <v>201</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G46" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="B47" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>140</v>
+        <v>201</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G47" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="B48" t="s">
-        <v>187</v>
+        <v>201</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G48" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>162</v>
+        <v>29</v>
       </c>
       <c r="B49" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="B50" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B51" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>145</v>
       </c>
       <c r="B52" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>53</v>
+      <c r="A53" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="B53" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B54" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B55" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="B56" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>144</v>
+      <c r="A57" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="B58" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>170</v>
+      <c r="A59" t="s">
+        <v>128</v>
       </c>
       <c r="B59" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>152</v>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="B60" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B61" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
         <v>201</v>
       </c>
       <c r="C61" t="s">
@@ -2554,10 +2706,10 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B62" s="9" t="s">
+      <c r="A62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" t="s">
         <v>201</v>
       </c>
       <c r="C62" t="s">
@@ -2566,32 +2718,32 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>201</v>
+        <v>83</v>
+      </c>
+      <c r="B63" t="s">
+        <v>202</v>
       </c>
       <c r="C63" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>201</v>
+      <c r="A64" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" t="s">
+        <v>202</v>
       </c>
       <c r="C64" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>90</v>
+      <c r="A65" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C65" t="s">
         <v>189</v>
@@ -2599,43 +2751,43 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>201</v>
+        <v>47</v>
+      </c>
+      <c r="B66" t="s">
+        <v>202</v>
       </c>
       <c r="C66" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>201</v>
+      <c r="A67" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B67" t="s">
+        <v>202</v>
       </c>
       <c r="C67" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>201</v>
+      <c r="A68" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B68" t="s">
+        <v>202</v>
       </c>
       <c r="C68" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>201</v>
+      <c r="A69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" t="s">
+        <v>202</v>
       </c>
       <c r="C69" t="s">
         <v>188</v>
@@ -2643,21 +2795,21 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>201</v>
+        <v>124</v>
+      </c>
+      <c r="B70" t="s">
+        <v>202</v>
       </c>
       <c r="C70" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>201</v>
+      <c r="A71" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>202</v>
       </c>
       <c r="C71" t="s">
         <v>196</v>
@@ -2665,10 +2817,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>201</v>
+        <v>186</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>202</v>
       </c>
       <c r="C72" t="s">
         <v>191</v>
@@ -2676,424 +2828,424 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>201</v>
+        <v>119</v>
+      </c>
+      <c r="B73" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>201</v>
+      <c r="A74" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B74" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>201</v>
+      <c r="A75" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B75" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>201</v>
+        <v>122</v>
+      </c>
+      <c r="B76" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>201</v>
+        <v>97</v>
+      </c>
+      <c r="B77" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>201</v>
+        <v>66</v>
+      </c>
+      <c r="B78" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>201</v>
+        <v>181</v>
+      </c>
+      <c r="B79" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>201</v>
+        <v>22</v>
+      </c>
+      <c r="B80" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>201</v>
+        <v>168</v>
+      </c>
+      <c r="B81" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>201</v>
+      <c r="A82" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B82" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>201</v>
+        <v>177</v>
+      </c>
+      <c r="B83" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>201</v>
+        <v>14</v>
+      </c>
+      <c r="B84" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>201</v>
+      <c r="A85" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B85" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>201</v>
+        <v>23</v>
+      </c>
+      <c r="B86" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>201</v>
+      <c r="A87" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B87" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>201</v>
+      <c r="A88" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B88" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>201</v>
+        <v>80</v>
+      </c>
+      <c r="B89" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>201</v>
+        <v>45</v>
+      </c>
+      <c r="B90" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>201</v>
+      <c r="A91" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B91" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>201</v>
+      <c r="A92" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B92" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B93" s="9" t="s">
-        <v>201</v>
+      <c r="A93" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B93" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>201</v>
+      <c r="A94" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B94" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B95" s="11" t="s">
-        <v>200</v>
+        <v>33</v>
+      </c>
+      <c r="B95" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>201</v>
+        <v>21</v>
+      </c>
+      <c r="B96" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>201</v>
+        <v>133</v>
+      </c>
+      <c r="B97" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>201</v>
+      <c r="A98" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B98" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>201</v>
+      <c r="A99" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B99" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>201</v>
+        <v>143</v>
+      </c>
+      <c r="B100" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>201</v>
+      <c r="A101" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B101" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>201</v>
+      <c r="A102" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B102" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>201</v>
+        <v>1</v>
+      </c>
+      <c r="B103" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>201</v>
+      <c r="A104" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B104" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B105" s="9" t="s">
-        <v>201</v>
+      <c r="A105" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B105" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>201</v>
+      <c r="A106" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B106" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>201</v>
+      <c r="A107" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B107" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>201</v>
+        <v>18</v>
+      </c>
+      <c r="B108" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>201</v>
+        <v>25</v>
+      </c>
+      <c r="B109" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>201</v>
+        <v>27</v>
+      </c>
+      <c r="B110" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>201</v>
+        <v>154</v>
+      </c>
+      <c r="B111" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>201</v>
+      <c r="A112" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B112" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>201</v>
+        <v>19</v>
+      </c>
+      <c r="B113" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>201</v>
+        <v>155</v>
+      </c>
+      <c r="B114" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B115" s="9" t="s">
-        <v>201</v>
+        <v>125</v>
+      </c>
+      <c r="B115" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>201</v>
+      <c r="A116" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B116" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B117" s="9" t="s">
-        <v>201</v>
+        <v>166</v>
+      </c>
+      <c r="B117" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>201</v>
+      <c r="A118" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B118" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B119" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>201</v>
+      <c r="A120" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B120" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B121" s="9" t="s">
-        <v>201</v>
+      <c r="A121" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B121" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="B122" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C122" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="7" t="s">
-        <v>13</v>
+      <c r="A123" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="B123" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C123" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B124" s="12" t="s">
-        <v>202</v>
+      <c r="A124" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B124" t="s">
+        <v>187</v>
       </c>
       <c r="C124" t="s">
         <v>188</v>
@@ -3101,325 +3253,117 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>47</v>
+        <v>140</v>
       </c>
       <c r="B125" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C125" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="3" t="s">
-        <v>59</v>
+      <c r="A126" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="B126" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C126" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
-        <v>79</v>
+      <c r="A127" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="B127" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>4</v>
+        <v>172</v>
       </c>
       <c r="B128" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="B129" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B130" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B131" s="11" t="s">
-        <v>202</v>
+        <v>52</v>
+      </c>
+      <c r="B131" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="B132" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
       <c r="B133" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B134" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="B135" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="B136" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="B137" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B138" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B139" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B140" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B141" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B142" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B143" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B144" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B145" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B146" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B147" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B148" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B149" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B150" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B151" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B152" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B153" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B154" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B155" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B156" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B157" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B158" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B159" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B160" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B161" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B162" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B163" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C163">
-    <sortCondition ref="B151:B163"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A79:B137">
+    <sortCondition descending="1" ref="B137"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
